--- a/configurations_96.xlsx
+++ b/configurations_96.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mprivitera\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elebr\rewardshaping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63B7E8D-03B6-4352-8ADF-2E86AF4757C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE51719-770D-4B87-AD77-A85DA59B3976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="1230" windowWidth="20085" windowHeight="11385" xr2:uid="{ED0B230A-7F90-4DDC-9730-AF1A055F0418}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ED0B230A-7F90-4DDC-9730-AF1A055F0418}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -112,7 +112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -128,9 +128,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -168,7 +168,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -274,7 +274,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -416,7 +416,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -426,13 +426,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3798ACEC-29E5-45B8-A739-40F95B81E777}">
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G131" sqref="G131:G137"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>1</f>
         <v>1</v>
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>1+A2</f>
         <v>2</v>
@@ -557,7 +557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">1+A3</f>
         <v>3</v>
@@ -599,7 +599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -641,7 +641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -683,7 +683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -725,7 +725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -767,7 +767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -809,7 +809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -851,7 +851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -935,7 +935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -977,7 +977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1019,7 +1019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1061,7 +1061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1103,7 +1103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1145,7 +1145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1187,7 +1187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1229,7 +1229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1271,7 +1271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1313,7 +1313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1355,7 +1355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1397,7 +1397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1439,7 +1439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1481,7 +1481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1523,7 +1523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1565,7 +1565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1607,7 +1607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1649,7 +1649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1691,7 +1691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1733,7 +1733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1775,7 +1775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1817,7 +1817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1859,7 +1859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1901,7 +1901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1943,7 +1943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1985,7 +1985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2027,7 +2027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2069,7 +2069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2111,7 +2111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2153,7 +2153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2195,7 +2195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2237,7 +2237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2279,7 +2279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2321,7 +2321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2363,7 +2363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2405,7 +2405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2447,7 +2447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2489,7 +2489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2531,7 +2531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2573,7 +2573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2615,7 +2615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2657,7 +2657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2699,7 +2699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2741,7 +2741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2783,7 +2783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2825,7 +2825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2909,7 +2909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2951,7 +2951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2993,7 +2993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3035,7 +3035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3077,7 +3077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3119,7 +3119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3161,7 +3161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3203,7 +3203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -3245,7 +3245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" ref="A68:A97" si="1">1+A67</f>
         <v>67</v>
@@ -3287,7 +3287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -3329,7 +3329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -3371,7 +3371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -3413,7 +3413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -3455,7 +3455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -3497,7 +3497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -3539,7 +3539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -3581,7 +3581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -3623,7 +3623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -3665,7 +3665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -3707,7 +3707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -3749,7 +3749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -3791,7 +3791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -3833,7 +3833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -3875,7 +3875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -3917,7 +3917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -3959,7 +3959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -4001,7 +4001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4043,7 +4043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4085,7 +4085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4127,7 +4127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4169,7 +4169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4211,7 +4211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4253,7 +4253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4295,7 +4295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4337,7 +4337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -4379,7 +4379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4421,7 +4421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -4463,7 +4463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>96</v>

--- a/configurations_96.xlsx
+++ b/configurations_96.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elebr\rewardshaping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE51719-770D-4B87-AD77-A85DA59B3976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD75F5AC-A893-4ACC-8B96-573BBAFD6AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ED0B230A-7F90-4DDC-9730-AF1A055F0418}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD13"/>
+      <selection activeCell="A2" sqref="A2:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/configurations_96.xlsx
+++ b/configurations_96.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elebr\rewardshaping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mprivitera\Documents\GitHub\rewardshaping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD75F5AC-A893-4ACC-8B96-573BBAFD6AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1F983C-445A-4B87-B23F-F0A103F5D18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ED0B230A-7F90-4DDC-9730-AF1A055F0418}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED0B230A-7F90-4DDC-9730-AF1A055F0418}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>configuration</t>
   </si>
@@ -74,6 +74,9 @@
   <si>
     <t>done</t>
   </si>
+  <si>
+    <t>best_base_stock</t>
+  </si>
 </sst>
 </file>
 
@@ -88,12 +91,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,11 +117,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -128,9 +141,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -168,7 +181,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -274,7 +287,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -416,7 +429,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -424,15 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3798ACEC-29E5-45B8-A739-40F95B81E777}">
-  <dimension ref="A1:M97"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M9"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,8 +485,11 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>1</f>
         <v>1</v>
@@ -515,91 +531,97 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <f>1+A2</f>
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
         <v>100</v>
       </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>0.3</v>
-      </c>
-      <c r="K3">
-        <v>200000</v>
-      </c>
-      <c r="L3">
-        <v>1000</v>
-      </c>
-      <c r="M3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K3" s="1">
+        <v>200000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M3" s="1">
+        <v>10</v>
+      </c>
+      <c r="N3" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <f t="shared" ref="A4:A67" si="0">1+A3</f>
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1000</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>0.3</v>
-      </c>
-      <c r="K4">
-        <v>200000</v>
-      </c>
-      <c r="L4">
-        <v>1000</v>
-      </c>
-      <c r="M4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K4" s="1">
+        <v>200000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="1">
+        <v>10</v>
+      </c>
+      <c r="N4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -641,7 +663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -683,7 +705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -725,7 +747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -767,7 +789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -809,7 +831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -851,7 +873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -893,7 +915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -935,7 +957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -977,7 +999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1019,93 +1041,93 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
         <v>100</v>
       </c>
-      <c r="H15">
-        <v>4</v>
-      </c>
-      <c r="I15">
-        <v>3</v>
-      </c>
-      <c r="J15">
-        <v>0.3</v>
-      </c>
-      <c r="K15">
-        <v>200000</v>
-      </c>
-      <c r="L15">
-        <v>1000</v>
-      </c>
-      <c r="M15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="H15" s="1">
+        <v>4</v>
+      </c>
+      <c r="I15" s="1">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K15" s="1">
+        <v>200000</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1000</v>
-      </c>
-      <c r="H16">
-        <v>4</v>
-      </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
-      <c r="J16">
-        <v>0.3</v>
-      </c>
-      <c r="K16">
-        <v>200000</v>
-      </c>
-      <c r="L16">
-        <v>1000</v>
-      </c>
-      <c r="M16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K16" s="1">
+        <v>200000</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M16" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f>1+A16</f>
         <v>16</v>
       </c>
       <c r="B17">
@@ -1145,7 +1167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1187,91 +1209,91 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
+      <c r="B19" s="1">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
         <v>100</v>
       </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <v>3</v>
-      </c>
-      <c r="J19">
-        <v>0.3</v>
-      </c>
-      <c r="K19">
-        <v>200000</v>
-      </c>
-      <c r="L19">
-        <v>1000</v>
-      </c>
-      <c r="M19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>3</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K19" s="1">
+        <v>200000</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M19" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1000</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>3</v>
-      </c>
-      <c r="J20">
-        <v>0.3</v>
-      </c>
-      <c r="K20">
-        <v>200000</v>
-      </c>
-      <c r="L20">
-        <v>1000</v>
-      </c>
-      <c r="M20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>3</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K20" s="1">
+        <v>200000</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M20" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1313,7 +1335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1355,7 +1377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1397,7 +1419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1439,7 +1461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1481,7 +1503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1523,7 +1545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1565,7 +1587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1607,7 +1629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1649,7 +1671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1691,7 +1713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1733,7 +1755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1775,7 +1797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1817,7 +1839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1859,7 +1881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1901,7 +1923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1943,7 +1965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1985,7 +2007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2027,7 +2049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2069,7 +2091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2111,7 +2133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2153,7 +2175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2195,7 +2217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2237,7 +2259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2279,7 +2301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2321,7 +2343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2363,91 +2385,94 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>3</v>
-      </c>
-      <c r="C47">
-        <v>4</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
+      <c r="B47" s="1">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
         <v>100</v>
       </c>
-      <c r="H47">
-        <v>4</v>
-      </c>
-      <c r="I47">
-        <v>3</v>
-      </c>
-      <c r="J47">
-        <v>0.3</v>
-      </c>
-      <c r="K47">
-        <v>200000</v>
-      </c>
-      <c r="L47">
-        <v>1000</v>
-      </c>
-      <c r="M47">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="H47" s="1">
+        <v>4</v>
+      </c>
+      <c r="I47" s="1">
+        <v>3</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K47" s="1">
+        <v>200000</v>
+      </c>
+      <c r="L47" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M47" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>3</v>
-      </c>
-      <c r="C48">
-        <v>4</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>1000</v>
-      </c>
-      <c r="H48">
-        <v>4</v>
-      </c>
-      <c r="I48">
-        <v>3</v>
-      </c>
-      <c r="J48">
-        <v>0.3</v>
-      </c>
-      <c r="K48">
-        <v>200000</v>
-      </c>
-      <c r="L48">
-        <v>1000</v>
-      </c>
-      <c r="M48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B48" s="1">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H48" s="1">
+        <v>4</v>
+      </c>
+      <c r="I48" s="1">
+        <v>3</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K48" s="1">
+        <v>200000</v>
+      </c>
+      <c r="L48" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M48" s="1">
+        <v>10</v>
+      </c>
+      <c r="N48" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2489,7 +2514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2531,7 +2556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2573,7 +2598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2615,7 +2640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2657,7 +2682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2699,7 +2724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2741,7 +2766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2783,7 +2808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2825,7 +2850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2867,7 +2892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2909,7 +2934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2951,7 +2976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2993,7 +3018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3035,7 +3060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3077,7 +3102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3119,7 +3144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3161,7 +3186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3203,7 +3228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -3245,7 +3270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ref="A68:A97" si="1">1+A67</f>
         <v>67</v>
@@ -3287,7 +3312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -3329,7 +3354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -3371,7 +3396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -3413,7 +3438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -3455,7 +3480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -3497,7 +3522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -3539,7 +3564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -3581,7 +3606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -3623,7 +3648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -3665,7 +3690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -3707,7 +3732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -3749,7 +3774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -3791,7 +3816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -3833,7 +3858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -3875,7 +3900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -3917,7 +3942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -3959,7 +3984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -4001,7 +4026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4043,7 +4068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4085,7 +4110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4127,7 +4152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4169,7 +4194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4211,7 +4236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4253,7 +4278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4295,7 +4320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4337,7 +4362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -4379,7 +4404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4421,7 +4446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -4463,7 +4488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>96</v>

--- a/configurations_96.xlsx
+++ b/configurations_96.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elebr\rewardshaping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebrambatti\Documents\GitHub\rewardshaping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD75F5AC-A893-4ACC-8B96-573BBAFD6AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35586447-1387-4587-A7F2-60D95ABAA48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ED0B230A-7F90-4DDC-9730-AF1A055F0418}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED0B230A-7F90-4DDC-9730-AF1A055F0418}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -112,7 +112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -128,9 +128,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -168,7 +168,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -274,7 +274,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -416,7 +416,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -427,12 +427,12 @@
   <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M9"/>
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>1</f>
         <v>1</v>
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>1+A2</f>
         <v>2</v>
@@ -557,7 +557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">1+A3</f>
         <v>3</v>
@@ -599,7 +599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -641,7 +641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -683,7 +683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -725,7 +725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -767,7 +767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -809,7 +809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -851,7 +851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -935,7 +935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -977,7 +977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1019,7 +1019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1061,7 +1061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1103,7 +1103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1145,7 +1145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1187,7 +1187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1229,7 +1229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1271,7 +1271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1313,7 +1313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1355,7 +1355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1397,7 +1397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1439,7 +1439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1481,7 +1481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1523,7 +1523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1565,7 +1565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1607,7 +1607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1649,7 +1649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1691,7 +1691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1733,7 +1733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1775,7 +1775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1817,7 +1817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1859,7 +1859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1901,7 +1901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1943,7 +1943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1985,7 +1985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2027,7 +2027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2069,7 +2069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2111,7 +2111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2153,7 +2153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2195,7 +2195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2237,7 +2237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2279,7 +2279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2321,7 +2321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2363,7 +2363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2405,7 +2405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2447,7 +2447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2489,7 +2489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2531,7 +2531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2573,7 +2573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2615,7 +2615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2657,7 +2657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2699,7 +2699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2741,7 +2741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2783,7 +2783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2825,7 +2825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2867,7 +2867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2909,7 +2909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2951,7 +2951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2993,7 +2993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3035,7 +3035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3077,7 +3077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3119,7 +3119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3161,7 +3161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3203,7 +3203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -3245,7 +3245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ref="A68:A97" si="1">1+A67</f>
         <v>67</v>
@@ -3287,7 +3287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -3329,7 +3329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -3371,7 +3371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -3413,7 +3413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -3455,7 +3455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -3497,7 +3497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -3539,7 +3539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -3581,7 +3581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -3623,7 +3623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -3665,7 +3665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -3707,7 +3707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -3749,7 +3749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -3791,7 +3791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -3833,7 +3833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -3875,7 +3875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -3917,7 +3917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -3959,7 +3959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -4001,7 +4001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4043,7 +4043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4085,7 +4085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4127,7 +4127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4169,7 +4169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4211,7 +4211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4253,7 +4253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4295,7 +4295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4337,7 +4337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -4379,7 +4379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4421,7 +4421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -4463,7 +4463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>96</v>
